--- a/平台修改意见1118 (版本 1).xlsx
+++ b/平台修改意见1118 (版本 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="2220" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="1020" yWindow="1240" windowWidth="25980" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,33 +95,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、 首页右上角qq联系方式去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、 每页最底下：版权所有：农民之家 邮箱：12345@163.com ICP备 938398501-4进行修改，版权所有：猫眼360  邮箱：2471892828@qq.com ICP备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版权所有：北京美农联合科技有限公司；地址：北京海淀区国家大学科技园；服务电话：01051686608；邮箱：2471892828@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“最新找活信息”和“最新雇人信息”以及“个人中心”的查询信息和搜索更多功能，是公开的，不注册、不登录能查询但是不能发布信息，只有注册登录的才能发布信息、点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要找活,下面的“注册为会员可以查询招工信息”改为“注册为会员可以发布找活信息”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要雇人,下面的“注册为会员可以发布招工信息”改为“注册为会员可以发布雇人信息”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充管理员直接填写发布找活雇人信息功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页样式重新设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5、 注册页面应该有手机验证码“获取验证码”按钮，以及输入验证框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、 首页右上角qq联系方式去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、 每页最底下：版权所有：农民之家 邮箱：12345@163.com ICP备 938398501-4进行修改，版权所有：猫眼360  邮箱：2471892828@qq.com ICP备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版权所有：北京美农联合科技有限公司；地址：北京海淀区国家大学科技园；服务电话：01051686608；邮箱：2471892828@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找活和雇人模块，发布信息都应包括“标题（必填）”、“工作区域（到区县街道/乡镇）（选填）”“服务地址（可选填）”“工种服务（必填并且需要自己手工填写）”“联系人（必填，标明先生或女士即可）”“联系方式（必填）”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“最新找活信息”和“最新雇人信息”以及“个人中心”的查询信息和搜索更多功能，是公开的，不注册、不登录能查询但是不能发布信息，只有注册登录的才能发布信息、点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>补充管理员直接填写</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -130,7 +139,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>发布找活</t>
+      <t>找活</t>
     </r>
     <r>
       <rPr>
@@ -141,7 +150,58 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>雇人信息功能</t>
+      <t>和雇人模块，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发布信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都应包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“标题（必填）”、“工作区域（到区县街道/乡镇）（选填）”“服务地址（可选填）”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“工种服务（必填并且需要自己手工填写）”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“联系人（必填，标明先生或女士即可）”“联系方式（必填）”</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +256,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,12 +345,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -273,12 +354,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -286,12 +363,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,26 +405,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -649,7 +751,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -657,129 +759,153 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/平台修改意见1118 (版本 1).xlsx
+++ b/平台修改意见1118 (版本 1).xlsx
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“最新找活信息”和“最新雇人信息”以及“个人中心”的查询信息和搜索更多功能，是公开的，不注册、不登录能查询但是不能发布信息，只有注册登录的才能发布信息、点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要找活,下面的“注册为会员可以查询招工信息”改为“注册为会员可以发布找活信息”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,49 +135,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>找活</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和雇人模块，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发布信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>都应包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“标题（必填）”、“工作区域（到区县街道/乡镇）（选填）”“服务地址（可选填）”</t>
+      <t>找活和雇人模块，发布信息都应包括“标题（必填）”、“工作区域（到区县街道/乡镇）（选填）”“服务地址（可选填）”</t>
     </r>
     <r>
       <rPr>
@@ -205,12 +159,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>“最新找活信息”和“最新雇人信息”以及“个人中心”的查询信息和搜索更多功能，是公开的，不注册、不登录能查询但是不能发布信息，只有注册登录的才能发布信息、点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +196,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,20 +318,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,41 +347,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -733,7 +681,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -751,103 +699,103 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -855,50 +803,50 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
-        <v>24</v>
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="16" t="s">
-        <v>26</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
     </row>
